--- a/My Office Add-in/Classeur1.xlsx
+++ b/My Office Add-in/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Nodejs\Nodejs_TestPCHOME\Nodejs_TestPCHOME\My Office Add-in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renhen\Documents\GitHub\Test1_ExcelNode\Nodejs_TestPCHOME\My Office Add-in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E5212-0949-436E-AFDB-B98482B6E624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E09407E-5003-40F8-B6C2-9277C037EB9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9B6A2435-3028-46A8-BE23-8EB95A993A53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6A2435-3028-46A8-BE23-8EB95A993A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -428,19 +428,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43780</v>
       </c>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43780</v>
       </c>
@@ -494,7 +494,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43781</v>
       </c>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43781</v>
       </c>
@@ -530,7 +530,7 @@
         <v>BOT.B2B.Traduc.GetAll Mail.Programmation</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43781</v>
       </c>
@@ -548,7 +548,7 @@
         <v>BOT.B2B.Traduc.GetAll Mail.Recette</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43781</v>
       </c>
@@ -566,7 +566,7 @@
         <v>BOT.B2B.Traduc.Unzip.Prog</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43781</v>
       </c>
@@ -584,7 +584,7 @@
         <v>BOT.B2B.Traduc.Unzip.Recette</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43781</v>
       </c>
@@ -602,7 +602,7 @@
         <v>BOT.B2B.Traduc.Renammer.Prog</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
